--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N2">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q2">
-        <v>6021.615771914561</v>
+        <v>6543.254542084323</v>
       </c>
       <c r="R2">
-        <v>6021.615771914561</v>
+        <v>58889.2908787589</v>
       </c>
       <c r="S2">
-        <v>0.01260911311203988</v>
+        <v>0.01039567594789688</v>
       </c>
       <c r="T2">
-        <v>0.01260911311203988</v>
+        <v>0.01039567594789688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N3">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q3">
-        <v>25.42077950965424</v>
+        <v>29.06459681757778</v>
       </c>
       <c r="R3">
-        <v>25.42077950965424</v>
+        <v>261.5813713582</v>
       </c>
       <c r="S3">
-        <v>5.32304777279974E-05</v>
+        <v>4.61767348539625E-05</v>
       </c>
       <c r="T3">
-        <v>5.32304777279974E-05</v>
+        <v>4.61767348539625E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N4">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q4">
-        <v>3699.586265703727</v>
+        <v>3882.930497107689</v>
       </c>
       <c r="R4">
-        <v>3699.586265703727</v>
+        <v>34946.3744739692</v>
       </c>
       <c r="S4">
-        <v>0.007746841289605516</v>
+        <v>0.006169053475837942</v>
       </c>
       <c r="T4">
-        <v>0.007746841289605516</v>
+        <v>0.006169053475837942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N5">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q5">
-        <v>1575.936054675452</v>
+        <v>2270.655144032155</v>
       </c>
       <c r="R5">
-        <v>1575.936054675452</v>
+        <v>20435.8962962894</v>
       </c>
       <c r="S5">
-        <v>0.003299970759248002</v>
+        <v>0.003607531223944126</v>
       </c>
       <c r="T5">
-        <v>0.003299970759248002</v>
+        <v>0.003607531223944125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N6">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q6">
-        <v>27.58679578212381</v>
+        <v>31.14717620971111</v>
       </c>
       <c r="R6">
-        <v>27.58679578212381</v>
+        <v>280.3245858874</v>
       </c>
       <c r="S6">
-        <v>5.776606173345184E-05</v>
+        <v>4.948545841914568E-05</v>
       </c>
       <c r="T6">
-        <v>5.776606173345184E-05</v>
+        <v>4.948545841914567E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N7">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q7">
-        <v>33874.8448276051</v>
+        <v>35597.64753281268</v>
       </c>
       <c r="R7">
-        <v>33874.8448276051</v>
+        <v>320378.827795314</v>
       </c>
       <c r="S7">
-        <v>0.07093307946951023</v>
+        <v>0.05655619934673827</v>
       </c>
       <c r="T7">
-        <v>0.07093307946951023</v>
+        <v>0.05655619934673826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N8">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q8">
-        <v>143.0056306984375</v>
+        <v>158.121813317974</v>
       </c>
       <c r="R8">
-        <v>143.0056306984375</v>
+        <v>1423.096319861766</v>
       </c>
       <c r="S8">
-        <v>0.0002994502209100408</v>
+        <v>0.0002512179712672288</v>
       </c>
       <c r="T8">
-        <v>0.0002994502209100408</v>
+        <v>0.0002512179712672287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N9">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q9">
-        <v>20812.17324784683</v>
+        <v>21124.53219440524</v>
       </c>
       <c r="R9">
-        <v>20812.17324784683</v>
+        <v>190120.7897496472</v>
       </c>
       <c r="S9">
-        <v>0.04358017125792703</v>
+        <v>0.03356185974907806</v>
       </c>
       <c r="T9">
-        <v>0.04358017125792703</v>
+        <v>0.03356185974907805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N10">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q10">
-        <v>8865.492474519939</v>
+        <v>12353.17699562956</v>
       </c>
       <c r="R10">
-        <v>8865.492474519939</v>
+        <v>111178.592960666</v>
       </c>
       <c r="S10">
-        <v>0.0185641199371341</v>
+        <v>0.0196262615411981</v>
       </c>
       <c r="T10">
-        <v>0.0185641199371341</v>
+        <v>0.01962626154119809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N11">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q11">
-        <v>155.1906434762696</v>
+        <v>169.451790882418</v>
       </c>
       <c r="R11">
-        <v>155.1906434762696</v>
+        <v>1525.066117941762</v>
       </c>
       <c r="S11">
-        <v>0.0003249653334989143</v>
+        <v>0.000269218612156156</v>
       </c>
       <c r="T11">
-        <v>0.0003249653334989143</v>
+        <v>0.0002692186121561559</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N12">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q12">
-        <v>118973.5931766897</v>
+        <v>126298.8834765833</v>
       </c>
       <c r="R12">
-        <v>118973.5931766897</v>
+        <v>1136689.95128925</v>
       </c>
       <c r="S12">
-        <v>0.2491277342383016</v>
+        <v>0.2006589009733848</v>
       </c>
       <c r="T12">
-        <v>0.2491277342383016</v>
+        <v>0.2006589009733848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N13">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q13">
-        <v>502.2574661309434</v>
+        <v>561.0092199756922</v>
       </c>
       <c r="R13">
-        <v>502.2574661309434</v>
+        <v>5049.08297978123</v>
       </c>
       <c r="S13">
-        <v>0.001051714596495756</v>
+        <v>0.0008913102825420449</v>
       </c>
       <c r="T13">
-        <v>0.001051714596495756</v>
+        <v>0.0008913102825420449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N14">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q14">
-        <v>73095.50924036423</v>
+        <v>74948.90856647893</v>
       </c>
       <c r="R14">
-        <v>73095.50924036423</v>
+        <v>674540.1770983103</v>
       </c>
       <c r="S14">
-        <v>0.1530601717055198</v>
+        <v>0.1190759982046297</v>
       </c>
       <c r="T14">
-        <v>0.1530601717055198</v>
+        <v>0.1190759982046297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N15">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q15">
-        <v>31136.95428989835</v>
+        <v>43828.52716597344</v>
       </c>
       <c r="R15">
-        <v>31136.95428989835</v>
+        <v>394456.7444937609</v>
       </c>
       <c r="S15">
-        <v>0.06520000502803822</v>
+        <v>0.06963311036741623</v>
       </c>
       <c r="T15">
-        <v>0.06520000502803822</v>
+        <v>0.06963311036741622</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N16">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q16">
-        <v>545.0530792314701</v>
+        <v>601.2074806861789</v>
       </c>
       <c r="R16">
-        <v>545.0530792314701</v>
+        <v>5410.86732617561</v>
       </c>
       <c r="S16">
-        <v>0.001141327542044434</v>
+        <v>0.0009551757625302615</v>
       </c>
       <c r="T16">
-        <v>0.001141327542044434</v>
+        <v>0.0009551757625302614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N17">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q17">
-        <v>87789.8225747798</v>
+        <v>145309.3474615135</v>
       </c>
       <c r="R17">
-        <v>87789.8225747798</v>
+        <v>1307784.127153621</v>
       </c>
       <c r="S17">
-        <v>0.1838296970215616</v>
+        <v>0.2308620089123197</v>
       </c>
       <c r="T17">
-        <v>0.1838296970215616</v>
+        <v>0.2308620089123196</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N18">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q18">
-        <v>370.6124414769133</v>
+        <v>645.4521325176627</v>
       </c>
       <c r="R18">
-        <v>370.6124414769133</v>
+        <v>5809.069192658964</v>
       </c>
       <c r="S18">
-        <v>0.0007760532010540186</v>
+        <v>0.001025469996066393</v>
       </c>
       <c r="T18">
-        <v>0.0007760532010540186</v>
+        <v>0.001025469996066393</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N19">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q19">
-        <v>53936.68978035064</v>
+        <v>86230.19219933891</v>
       </c>
       <c r="R19">
-        <v>53936.68978035064</v>
+        <v>776071.7297940502</v>
       </c>
       <c r="S19">
-        <v>0.112942082007536</v>
+        <v>0.1369992760122155</v>
       </c>
       <c r="T19">
-        <v>0.112942082007536</v>
+        <v>0.1369992760122155</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N20">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q20">
-        <v>22975.75133811102</v>
+        <v>50425.58182129626</v>
       </c>
       <c r="R20">
-        <v>22975.75133811102</v>
+        <v>453830.2363916664</v>
       </c>
       <c r="S20">
-        <v>0.04811064977070643</v>
+        <v>0.08011426190541748</v>
       </c>
       <c r="T20">
-        <v>0.04811064977070643</v>
+        <v>0.08011426190541747</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N21">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O21">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P21">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q21">
-        <v>402.1910395570313</v>
+        <v>691.7010214400386</v>
       </c>
       <c r="R21">
-        <v>402.1910395570313</v>
+        <v>6225.309192960348</v>
       </c>
       <c r="S21">
-        <v>0.0008421779971542609</v>
+        <v>0.00109894848587525</v>
       </c>
       <c r="T21">
-        <v>0.0008421779971542609</v>
+        <v>0.00109894848587525</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N22">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O22">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P22">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q22">
-        <v>6701.322370200619</v>
+        <v>9088.811133085399</v>
       </c>
       <c r="R22">
-        <v>6701.322370200619</v>
+        <v>81799.30019776859</v>
       </c>
       <c r="S22">
-        <v>0.01403240176170139</v>
+        <v>0.01443996021910769</v>
       </c>
       <c r="T22">
-        <v>0.01403240176170139</v>
+        <v>0.01443996021910769</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N23">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O23">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P23">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q23">
-        <v>28.29022057344255</v>
+        <v>40.37174917087845</v>
       </c>
       <c r="R23">
-        <v>28.29022057344255</v>
+        <v>363.345742537906</v>
       </c>
       <c r="S23">
-        <v>5.923901568725931E-05</v>
+        <v>6.414111190859103E-05</v>
       </c>
       <c r="T23">
-        <v>5.923901568725931E-05</v>
+        <v>6.414111190859102E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N24">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O24">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P24">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q24">
-        <v>4117.18733674114</v>
+        <v>5393.527288924227</v>
       </c>
       <c r="R24">
-        <v>4117.18733674114</v>
+        <v>48541.74560031803</v>
       </c>
       <c r="S24">
-        <v>0.008621287508007384</v>
+        <v>0.008569032665804629</v>
       </c>
       <c r="T24">
-        <v>0.008621287508007384</v>
+        <v>0.008569032665804629</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N25">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O25">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P25">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q25">
-        <v>1753.824212175615</v>
+        <v>3154.020009422267</v>
       </c>
       <c r="R25">
-        <v>1753.824212175615</v>
+        <v>28386.1800848004</v>
       </c>
       <c r="S25">
-        <v>0.003672464120527138</v>
+        <v>0.005010987993857267</v>
       </c>
       <c r="T25">
-        <v>0.003672464120527138</v>
+        <v>0.005010987993857265</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N26">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O26">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P26">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q26">
-        <v>30.700731946257</v>
+        <v>43.26452533341578</v>
       </c>
       <c r="R26">
-        <v>30.700731946257</v>
+        <v>389.380728000742</v>
       </c>
       <c r="S26">
-        <v>6.428656632963649E-05</v>
+        <v>6.87370455349114E-05</v>
       </c>
       <c r="T26">
-        <v>6.428656632963649E-05</v>
+        <v>6.873704553491137E-05</v>
       </c>
     </row>
   </sheetData>
